--- a/toDo.xlsx
+++ b/toDo.xlsx
@@ -223,10 +223,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D39" activeCellId="0" sqref="D39"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -690,6 +690,7 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/toDo.xlsx
+++ b/toDo.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="32">
   <si>
     <t xml:space="preserve">Catégories</t>
   </si>
@@ -51,6 +51,9 @@
     <t xml:space="preserve">design html</t>
   </si>
   <si>
+    <t xml:space="preserve">Arena</t>
+  </si>
+  <si>
     <t xml:space="preserve">css</t>
   </si>
   <si>
@@ -78,6 +81,12 @@
     <t xml:space="preserve">Liste.php</t>
   </si>
   <si>
+    <t xml:space="preserve">fonction getAllApart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creation table habitation</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ajouter.php</t>
   </si>
   <si>
@@ -85,6 +94,12 @@
   </si>
   <si>
     <t xml:space="preserve">Supprimer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fonction suppHabitat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">supprimer habitation</t>
   </si>
   <si>
     <t xml:space="preserve">EvolutionNBH</t>
@@ -226,7 +241,7 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -268,8 +283,14 @@
       <c r="C2" s="0" t="s">
         <v>8</v>
       </c>
+      <c r="D2" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="E2" s="2" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -280,10 +301,16 @@
         <v>7</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>20</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -291,13 +318,19 @@
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -305,136 +338,209 @@
         <v>6</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>5</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E6" s="2"/>
+      <c r="A6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E9" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>16</v>
+        <v>8</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E11" s="2"/>
+      <c r="A11" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>15</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>9</v>
+        <v>20</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>5</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="2" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>12</v>
+        <v>7</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>8</v>
       </c>
       <c r="E15" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E17" s="2" t="n">
         <v>0</v>
@@ -442,49 +548,49 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>12</v>
+        <v>7</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>8</v>
       </c>
       <c r="E20" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E22" s="2" t="n">
         <v>0</v>
@@ -492,116 +598,146 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E23" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="E24" s="2"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>12</v>
+        <v>7</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>5</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E26" s="2"/>
+      <c r="A26" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>8</v>
+        <v>24</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>5</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>9</v>
+        <v>25</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>5</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="E29" s="2"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>12</v>
+        <v>7</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>27</v>
       </c>
       <c r="E30" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E31" s="2"/>
+      <c r="B31" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>21</v>
-      </c>
       <c r="B32" s="0" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E32" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>29</v>
+      </c>
       <c r="B33" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E33" s="2" t="n">
         <v>0</v>
@@ -609,35 +745,35 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E34" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>24</v>
-      </c>
       <c r="B35" s="0" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E35" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>30</v>
+      </c>
       <c r="B36" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E36" s="2" t="n">
         <v>0</v>
@@ -645,51 +781,28 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E37" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>25</v>
-      </c>
       <c r="B38" s="0" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E38" s="2" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C39" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="E39" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C40" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="E40" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/toDo.xlsx
+++ b/toDo.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="33">
   <si>
     <t xml:space="preserve">Catégories</t>
   </si>
@@ -84,13 +84,16 @@
     <t xml:space="preserve">fonction getAllApart</t>
   </si>
   <si>
-    <t xml:space="preserve">Creation table habitation</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ajouter.php</t>
   </si>
   <si>
+    <t xml:space="preserve">insertion nouvelle habitation</t>
+  </si>
+  <si>
     <t xml:space="preserve">Modifier.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fonction modifyHabitat</t>
   </si>
   <si>
     <t xml:space="preserve">Supprimer</t>
@@ -240,15 +243,16 @@
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="23.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="34.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="28.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.58"/>
   </cols>
@@ -327,7 +331,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>9</v>
@@ -403,6 +407,9 @@
       <c r="C8" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="D8" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="E8" s="2" t="n">
         <v>100</v>
       </c>
@@ -420,8 +427,11 @@
       <c r="C9" s="0" t="s">
         <v>17</v>
       </c>
+      <c r="D9" s="0" t="n">
+        <v>5</v>
+      </c>
       <c r="E9" s="2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>9</v>
@@ -461,7 +471,7 @@
         <v>10</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>9</v>
@@ -489,219 +499,279 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C13" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E13" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F13" s="0" t="s">
+      <c r="B14" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="F14" s="0" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>8</v>
+      <c r="D15" s="0" t="n">
+        <v>15</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="E17" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>23</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>5</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>10</v>
+        <v>25</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>5</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B22" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="0" t="s">
+      <c r="C25" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E25" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F25" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>7</v>
-      </c>
       <c r="C26" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="0" t="n">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F26" s="0" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B27" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E27" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F27" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" s="0" t="s">
+      <c r="C28" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E28" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F28" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E29" s="2"/>
+      <c r="C29" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E30" s="2" t="n">
         <v>0</v>
@@ -712,7 +782,7 @@
         <v>11</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E31" s="2" t="n">
         <v>0</v>
@@ -723,84 +793,18 @@
         <v>13</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E32" s="2" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B33" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E33" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E34" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C35" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E35" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B36" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="E36" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="E37" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="E38" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
